--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
@@ -549,34 +549,34 @@
         <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N2">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P2">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q2">
-        <v>23.16117165157</v>
+        <v>31.56046624457667</v>
       </c>
       <c r="R2">
-        <v>208.45054486413</v>
+        <v>284.04419620119</v>
       </c>
       <c r="S2">
-        <v>0.1247412465495095</v>
+        <v>0.1550255297752276</v>
       </c>
       <c r="T2">
-        <v>0.1247412465495095</v>
+        <v>0.1550255297752277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>34.517578</v>
       </c>
       <c r="O3">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P3">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q3">
         <v>120.0549360431044</v>
@@ -635,10 +635,10 @@
         <v>1080.49442438794</v>
       </c>
       <c r="S3">
-        <v>0.6465908807088927</v>
+        <v>0.5897118223154115</v>
       </c>
       <c r="T3">
-        <v>0.6465908807088926</v>
+        <v>0.5897118223154116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N4">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P4">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q4">
-        <v>36.98205386552222</v>
+        <v>45.58256240696888</v>
       </c>
       <c r="R4">
-        <v>332.8384847897</v>
+        <v>410.2430616627199</v>
       </c>
       <c r="S4">
-        <v>0.1991776395661589</v>
+        <v>0.2239022969715165</v>
       </c>
       <c r="T4">
-        <v>0.1991776395661589</v>
+        <v>0.2239022969715165</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>0.9711091978791584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N5">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P5">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q5">
-        <v>0.1112985955555555</v>
+        <v>0.5027566246111111</v>
       </c>
       <c r="R5">
-        <v>1.00168736</v>
+        <v>4.5248096215</v>
       </c>
       <c r="S5">
-        <v>0.0005994310545973</v>
+        <v>0.002469548817002535</v>
       </c>
       <c r="T5">
-        <v>0.0005994310545973001</v>
+        <v>0.002469548817002536</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,34 +797,34 @@
         <v>0.02889080212084161</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.219727</v>
+        <v>3.024701</v>
       </c>
       <c r="N6">
-        <v>6.659181</v>
+        <v>9.074103000000001</v>
       </c>
       <c r="O6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334842</v>
       </c>
       <c r="P6">
-        <v>0.1284523376175785</v>
+        <v>0.1596375877334843</v>
       </c>
       <c r="Q6">
-        <v>0.689052094794</v>
+        <v>0.9389337338220001</v>
       </c>
       <c r="R6">
-        <v>6.201468853145999</v>
+        <v>8.450403604398</v>
       </c>
       <c r="S6">
-        <v>0.003711091068069</v>
+        <v>0.004612057958256584</v>
       </c>
       <c r="T6">
-        <v>0.003711091068068999</v>
+        <v>0.004612057958256586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>34.517578</v>
       </c>
       <c r="O7">
-        <v>0.6658271614778304</v>
+        <v>0.6072559333217162</v>
       </c>
       <c r="P7">
-        <v>0.6658271614778303</v>
+        <v>0.6072559333217163</v>
       </c>
       <c r="Q7">
         <v>3.571671865972</v>
@@ -883,10 +883,10 @@
         <v>32.14504679374799</v>
       </c>
       <c r="S7">
-        <v>0.01923628076893765</v>
+        <v>0.01754411100630469</v>
       </c>
       <c r="T7">
-        <v>0.01923628076893765</v>
+        <v>0.01754411100630469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.544296666666666</v>
+        <v>4.368554666666666</v>
       </c>
       <c r="N8">
-        <v>10.63289</v>
+        <v>13.105664</v>
       </c>
       <c r="O8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="P8">
-        <v>0.2051032365887898</v>
+        <v>0.2305634602787257</v>
       </c>
       <c r="Q8">
-        <v>1.10022765986</v>
+        <v>1.356095476736</v>
       </c>
       <c r="R8">
-        <v>9.902048938739998</v>
+        <v>12.204859290624</v>
       </c>
       <c r="S8">
-        <v>0.005925597022630888</v>
+        <v>0.006661163307209188</v>
       </c>
       <c r="T8">
-        <v>0.005925597022630888</v>
+        <v>0.00666116330720919</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,34 +983,34 @@
         <v>0.02889080212084161</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01066666666666667</v>
+        <v>0.04818333333333333</v>
       </c>
       <c r="N9">
-        <v>0.032</v>
+        <v>0.14455</v>
       </c>
       <c r="O9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073676</v>
       </c>
       <c r="P9">
-        <v>0.0006172643158013743</v>
+        <v>0.002543018666073677</v>
       </c>
       <c r="Q9">
-        <v>0.003311168</v>
+        <v>0.0149571667</v>
       </c>
       <c r="R9">
-        <v>0.029800512</v>
+        <v>0.1346145003</v>
       </c>
       <c r="S9">
-        <v>1.783326120407419E-05</v>
+        <v>7.346984907114117E-05</v>
       </c>
       <c r="T9">
-        <v>1.783326120407419E-05</v>
+        <v>7.346984907114119E-05</v>
       </c>
     </row>
   </sheetData>
